--- a/Documentation/actuator comparison.xlsx
+++ b/Documentation/actuator comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\organized\MSc Robotics\23 - MSc Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\organized\MSc Robotics\23 - MSc Thesis\Github-files\Anti-Backlash-Cycloidal-Actuator\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D5005B-706E-44BF-9619-CCC9EE9CEA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0778D51-DDE5-431C-B67B-5E854120EA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="759" yWindow="759" windowWidth="24009" windowHeight="12384" xr2:uid="{5412E31F-F38B-4E29-907C-BD6AEE2BFDC1}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{5412E31F-F38B-4E29-907C-BD6AEE2BFDC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="93">
   <si>
     <t>actuators comparison</t>
   </si>
@@ -301,6 +301,24 @@
   </si>
   <si>
     <t>156 (62A)</t>
+  </si>
+  <si>
+    <t>Roozing et al. \cite{roozing_experimental_2024}</t>
+  </si>
+  <si>
+    <t>PULSE115-60 \cite{perez-diaz_design_2019}</t>
+  </si>
+  <si>
+    <t>Proposed design (theorethical)</t>
+  </si>
+  <si>
+    <t>Proposed design (tested)</t>
+  </si>
+  <si>
+    <t>120 (44v)</t>
+  </si>
+  <si>
+    <t>70 (62A)</t>
   </si>
 </sst>
 </file>
@@ -487,9 +505,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -527,7 +545,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -633,7 +651,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -775,7 +793,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -783,80 +801,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59002A08-148E-43A5-A5C3-A9F7C7EE7A41}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.21875" customWidth="1"/>
-    <col min="2" max="12" width="12.6640625" customWidth="1"/>
+    <col min="2" max="13" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>20</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" ht="94.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="16" customFormat="1" ht="94.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>6</v>
-      </c>
       <c r="G4" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="I4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="J4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="L4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="M4" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="16" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="16" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>41</v>
       </c>
@@ -864,37 +885,40 @@
         <v>43</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>45</v>
       </c>
       <c r="E5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>44</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>43</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>43</v>
       </c>
       <c r="K5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="M5" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
@@ -902,37 +926,40 @@
         <v>85</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="H6" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="I6" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="J6" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="K6" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="12">
+      <c r="L6" s="12">
         <v>286</v>
       </c>
-      <c r="L6" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>2</v>
       </c>
@@ -940,37 +967,40 @@
         <v>84</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="E7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="12">
         <v>26.4</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="H7" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="12">
+      <c r="I7" s="12">
         <v>6.9</v>
       </c>
-      <c r="I7" s="12">
+      <c r="J7" s="12">
         <v>80</v>
       </c>
-      <c r="J7" s="12">
+      <c r="K7" s="12">
         <v>30</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="L7" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>3</v>
       </c>
@@ -978,37 +1008,40 @@
         <v>86</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="D8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="12">
+      <c r="F8" s="12">
         <v>55.2</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="H8" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="12">
+      <c r="I8" s="12">
         <v>17</v>
       </c>
-      <c r="I8" s="12">
+      <c r="J8" s="12">
         <v>250</v>
       </c>
-      <c r="J8" s="12">
+      <c r="K8" s="12">
         <v>85</v>
       </c>
-      <c r="K8" s="12">
+      <c r="L8" s="12">
         <v>23.7</v>
       </c>
-      <c r="L8" s="12">
+      <c r="M8" s="12">
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>4</v>
       </c>
@@ -1016,37 +1049,40 @@
         <v>125</v>
       </c>
       <c r="C9" s="12">
+        <v>125</v>
+      </c>
+      <c r="D9" s="12">
         <v>104</v>
       </c>
-      <c r="D9" s="12">
+      <c r="E9" s="12">
         <v>90</v>
       </c>
-      <c r="E9" s="12">
+      <c r="F9" s="12">
         <v>126</v>
       </c>
-      <c r="F9" s="12">
+      <c r="G9" s="12">
         <v>113.8</v>
       </c>
-      <c r="G9" s="12">
+      <c r="H9" s="12">
         <v>110</v>
       </c>
-      <c r="H9" s="12">
+      <c r="I9" s="12">
         <v>96</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="J9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="K9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="12">
+      <c r="L9" s="12">
         <v>96</v>
       </c>
-      <c r="L9" s="12">
+      <c r="M9" s="12">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
@@ -1054,37 +1090,40 @@
         <v>60</v>
       </c>
       <c r="C10" s="12">
+        <v>60</v>
+      </c>
+      <c r="D10" s="12">
         <v>58</v>
       </c>
-      <c r="D10" s="12">
+      <c r="E10" s="12">
         <v>37</v>
       </c>
-      <c r="E10" s="12">
+      <c r="F10" s="12">
         <v>68</v>
       </c>
-      <c r="F10" s="12">
+      <c r="G10" s="12">
         <v>64.2</v>
       </c>
-      <c r="G10" s="12">
+      <c r="H10" s="12">
         <v>51</v>
       </c>
-      <c r="H10" s="12">
+      <c r="I10" s="12">
         <v>40</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="J10" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="K10" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="12">
+      <c r="L10" s="12">
         <v>42</v>
       </c>
-      <c r="L10" s="12">
+      <c r="M10" s="12">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>63</v>
       </c>
@@ -1092,37 +1131,40 @@
         <v>1.2</v>
       </c>
       <c r="C11" s="12">
+        <v>1.35</v>
+      </c>
+      <c r="D11" s="12">
         <v>0.79700000000000004</v>
       </c>
-      <c r="D11" s="12">
+      <c r="E11" s="12">
         <v>1.85</v>
       </c>
-      <c r="E11" s="12">
+      <c r="F11" s="12">
         <v>1.89</v>
       </c>
-      <c r="F11" s="12">
+      <c r="G11" s="12">
         <v>1.25</v>
       </c>
-      <c r="G11" s="12">
+      <c r="H11" s="12">
         <v>0.77</v>
       </c>
-      <c r="H11" s="12">
+      <c r="I11" s="12">
         <v>0.48</v>
       </c>
-      <c r="I11" s="12">
+      <c r="J11" s="12">
         <v>3</v>
       </c>
-      <c r="J11" s="12">
+      <c r="K11" s="12">
         <v>0.81499999999999995</v>
       </c>
-      <c r="K11" s="12">
+      <c r="L11" s="12">
         <v>0.53</v>
       </c>
-      <c r="L11" s="12">
+      <c r="M11" s="12">
         <v>1.9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>12</v>
       </c>
@@ -1130,37 +1172,41 @@
         <v>111.42857142857143</v>
       </c>
       <c r="C12" s="13">
+        <f>156/1.35</f>
+        <v>115.55555555555554</v>
+      </c>
+      <c r="D12" s="13">
         <v>45.671267252195733</v>
       </c>
-      <c r="D12" s="13">
+      <c r="E12" s="13">
         <v>81.081081081081081</v>
       </c>
-      <c r="E12" s="13">
+      <c r="F12" s="13">
         <v>29.206349206349209</v>
       </c>
-      <c r="F12" s="13">
+      <c r="G12" s="13">
         <v>50</v>
       </c>
-      <c r="G12" s="13">
+      <c r="H12" s="13">
         <v>54.545454545454547</v>
       </c>
-      <c r="H12" s="13">
+      <c r="I12" s="13">
         <v>35.416666666666671</v>
       </c>
-      <c r="I12" s="13">
+      <c r="J12" s="13">
         <v>83.333333333333329</v>
       </c>
-      <c r="J12" s="13">
+      <c r="K12" s="13">
         <v>104.29447852760737</v>
       </c>
-      <c r="K12" s="13">
+      <c r="L12" s="13">
         <v>44.716981132075468</v>
       </c>
-      <c r="L12" s="13">
+      <c r="M12" s="13">
         <v>189.47368421052633</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>62</v>
       </c>
@@ -1168,37 +1214,41 @@
         <v>1750.4069322098815</v>
       </c>
       <c r="C13" s="13">
+        <f>(120*156)/9.5488/1.35</f>
+        <v>1452.1894548704199</v>
+      </c>
+      <c r="D13" s="13">
         <v>1755.3362811615943</v>
       </c>
-      <c r="D13" s="13">
+      <c r="E13" s="13">
         <v>1502.9481559307296</v>
       </c>
-      <c r="E13" s="13">
+      <c r="F13" s="13">
         <v>779.95340227243719</v>
       </c>
-      <c r="F13" s="13">
+      <c r="G13" s="13">
         <v>471.26340482573721</v>
       </c>
-      <c r="G13" s="13">
+      <c r="H13" s="13">
         <v>1073.9093346331952</v>
       </c>
-      <c r="H13" s="13">
+      <c r="I13" s="13">
         <v>1416.8446995084898</v>
       </c>
-      <c r="I13" s="13">
+      <c r="J13" s="13">
         <v>1919.962019660411</v>
       </c>
-      <c r="J13" s="13">
+      <c r="K13" s="13">
         <v>2610.4201960558566</v>
       </c>
-      <c r="K13" s="13">
+      <c r="L13" s="13">
         <v>1339.3365243563155</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="M13" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>7</v>
       </c>
@@ -1212,7 +1262,7 @@
         <v>40</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>9</v>
@@ -1230,13 +1280,16 @@
         <v>9</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>8</v>
       </c>
@@ -1244,37 +1297,40 @@
         <v>13</v>
       </c>
       <c r="C15" s="12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D15" s="12">
         <v>11</v>
       </c>
       <c r="E15" s="12">
+        <v>11</v>
+      </c>
+      <c r="F15" s="12">
         <v>8</v>
       </c>
-      <c r="F15" s="12">
+      <c r="G15" s="12">
         <v>5</v>
       </c>
-      <c r="G15" s="12">
+      <c r="H15" s="12">
         <v>8</v>
       </c>
-      <c r="H15" s="12">
+      <c r="I15" s="12">
         <v>9</v>
       </c>
-      <c r="I15" s="12">
+      <c r="J15" s="12">
         <v>5.9</v>
       </c>
-      <c r="J15" s="12">
+      <c r="K15" s="12">
         <v>14.5</v>
       </c>
-      <c r="K15" s="12">
+      <c r="L15" s="12">
         <v>6.3</v>
       </c>
-      <c r="L15" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -1286,12 +1342,16 @@
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" display="130@44v" xr:uid="{AFE67E3F-C65E-4EC5-93BC-A5B45B20FD77}"/>
     <hyperlink ref="B7" r:id="rId2" display="40@20A" xr:uid="{45AA9AC9-4DEF-46AA-BC8D-B74AAA8401CD}"/>
     <hyperlink ref="B8" r:id="rId3" display="100@100A" xr:uid="{EEF263DE-626B-4954-8267-A48BFA0CABD3}"/>
+    <hyperlink ref="C6" r:id="rId4" display="130@44v" xr:uid="{28962010-B7FB-4F3C-89A4-D73B71075153}"/>
+    <hyperlink ref="C7" r:id="rId5" display="40@20A" xr:uid="{D6CE8101-65B3-4F99-9A1B-A166BA533606}"/>
+    <hyperlink ref="C8" r:id="rId6" display="100@100A" xr:uid="{FF47BA9B-6B10-4929-B847-7A721B0ACFD2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1790,7 +1850,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -2342,7 +2402,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
